--- a/DATA/bd_tesis.xlsx
+++ b/DATA/bd_tesis.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebasteitor\Desktop\MODELOS ECONOMETRICOS\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4674DCEC-E9C8-4024-8C63-1C256FA7B276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8381C0-F436-40A6-A479-FB2824A37399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6936" yWindow="0" windowWidth="16188" windowHeight="12336" activeTab="1" xr2:uid="{3A7A9CE9-36D3-406C-942F-B2B38294790B}"/>
+    <workbookView xWindow="11610" yWindow="0" windowWidth="26895" windowHeight="15585" xr2:uid="{3A7A9CE9-36D3-406C-942F-B2B38294790B}"/>
   </bookViews>
   <sheets>
-    <sheet name="BD - VALOR FINAL" sheetId="4" r:id="rId1"/>
-    <sheet name="bdat_tes" sheetId="9" r:id="rId2"/>
+    <sheet name="bdat_tes" sheetId="9" r:id="rId1"/>
+    <sheet name="BD - VALOR FINAL" sheetId="4" r:id="rId2"/>
     <sheet name="PBI" sheetId="2" r:id="rId3"/>
     <sheet name="PBI - Gasto" sheetId="3" r:id="rId4"/>
     <sheet name="TIR" sheetId="5" r:id="rId5"/>
@@ -6347,14 +6347,880 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A150BA-58BA-4346-BC8D-58452EDD340B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEEA0561-CA9B-4C71-BA96-EE09D831B140}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5">
+        <v>12057.93</v>
+      </c>
+      <c r="C2" s="10">
+        <v>118217.24559821399</v>
+      </c>
+      <c r="D2" s="5">
+        <v>101.638824623758</v>
+      </c>
+      <c r="E2" s="5">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="F2" s="5">
+        <v>85.138244173322434</v>
+      </c>
+      <c r="G2" s="10">
+        <v>4754.9236666666666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5">
+        <v>13856.9</v>
+      </c>
+      <c r="C3" s="10">
+        <v>125207.210340167</v>
+      </c>
+      <c r="D3" s="5">
+        <v>99.470273332788295</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4.25</v>
+      </c>
+      <c r="F3" s="5">
+        <v>85.69561782154851</v>
+      </c>
+      <c r="G3" s="10">
+        <v>4807.559666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5">
+        <v>15296.98</v>
+      </c>
+      <c r="C4" s="10">
+        <v>126666.49622835001</v>
+      </c>
+      <c r="D4" s="5">
+        <v>99.595420707391</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4.25</v>
+      </c>
+      <c r="F4" s="5">
+        <v>86.169780670308512</v>
+      </c>
+      <c r="G4" s="10">
+        <v>4835.0423333333338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5">
+        <v>15566.96</v>
+      </c>
+      <c r="C5" s="10">
+        <v>131480.70798639799</v>
+      </c>
+      <c r="D5" s="5">
+        <v>98.599606948240194</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4.25</v>
+      </c>
+      <c r="F5" s="5">
+        <v>87.012809881326618</v>
+      </c>
+      <c r="G5" s="10">
+        <v>4931.0093333333334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5">
+        <v>15757.01</v>
+      </c>
+      <c r="C6" s="10">
+        <v>120917.358472768</v>
+      </c>
+      <c r="D6" s="5">
+        <v>94.820195550439436</v>
+      </c>
+      <c r="E6" s="5">
+        <v>4.25</v>
+      </c>
+      <c r="F6" s="5">
+        <v>88.068362361292728</v>
+      </c>
+      <c r="G6" s="10">
+        <v>4865.3516666666665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="5">
+        <v>16132.87</v>
+      </c>
+      <c r="C7" s="10">
+        <v>128522.91161441299</v>
+      </c>
+      <c r="D7" s="5">
+        <v>94.869219920908904</v>
+      </c>
+      <c r="E7" s="5">
+        <v>4.083333333333333</v>
+      </c>
+      <c r="F7" s="5">
+        <v>88.399384276329059</v>
+      </c>
+      <c r="G7" s="10">
+        <v>4888.4089999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="5">
+        <v>18538.27</v>
+      </c>
+      <c r="C8" s="10">
+        <v>130231.55172207901</v>
+      </c>
+      <c r="D8" s="5">
+        <v>96.640571854274526</v>
+      </c>
+      <c r="E8" s="5">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="F8" s="5">
+        <v>88.746623223250253</v>
+      </c>
+      <c r="G8" s="10">
+        <v>4930.2760000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5">
+        <v>19974.38</v>
+      </c>
+      <c r="C9" s="10">
+        <v>134533.27709485599</v>
+      </c>
+      <c r="D9" s="5">
+        <v>97.522510591134122</v>
+      </c>
+      <c r="E9" s="5">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="F9" s="5">
+        <v>88.447725459960736</v>
+      </c>
+      <c r="G9" s="10">
+        <v>5057.2423333333327</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="5">
+        <v>20558.84</v>
+      </c>
+      <c r="C10" s="10">
+        <v>124747.10682904</v>
+      </c>
+      <c r="D10" s="5">
+        <v>100.28431967095757</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2.9166666666666665</v>
+      </c>
+      <c r="F10" s="5">
+        <v>88.886651844076866</v>
+      </c>
+      <c r="G10" s="10">
+        <v>5019.2286666666669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="5">
+        <v>19800.259999999998</v>
+      </c>
+      <c r="C11" s="10">
+        <v>135716.38025113</v>
+      </c>
+      <c r="D11" s="5">
+        <v>99.176893201602198</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2.75</v>
+      </c>
+      <c r="F11" s="5">
+        <v>89.236869094140673</v>
+      </c>
+      <c r="G11" s="10">
+        <v>5081.5293333333329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="5">
+        <v>19564.07</v>
+      </c>
+      <c r="C12" s="10">
+        <v>133407.82504362401</v>
+      </c>
+      <c r="D12" s="5">
+        <v>96.337309912374437</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2.75</v>
+      </c>
+      <c r="F12" s="5">
+        <v>89.919557138450713</v>
+      </c>
+      <c r="G12" s="10">
+        <v>5135.78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="5">
+        <v>19350.400000000001</v>
+      </c>
+      <c r="C13" s="10">
+        <v>140744.50333539501</v>
+      </c>
+      <c r="D13" s="5">
+        <v>97.003669975220177</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2.75</v>
+      </c>
+      <c r="F13" s="5">
+        <v>90.275723356938059</v>
+      </c>
+      <c r="G13" s="10">
+        <v>5252.7996666666668</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="5">
+        <v>21098.07</v>
+      </c>
+      <c r="C14" s="10">
+        <v>127738.76847079401</v>
+      </c>
+      <c r="D14" s="5">
+        <v>97.194523091669296</v>
+      </c>
+      <c r="E14" s="5">
+        <v>2.75</v>
+      </c>
+      <c r="F14" s="5">
+        <v>90.777142030719617</v>
+      </c>
+      <c r="G14" s="10">
+        <v>5160.6616666666669</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="5">
+        <v>20622.79</v>
+      </c>
+      <c r="C15" s="10">
+        <v>137275.801035293</v>
+      </c>
+      <c r="D15" s="5">
+        <v>96.105681445339812</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2.75</v>
+      </c>
+      <c r="F15" s="5">
+        <v>91.501026386263774</v>
+      </c>
+      <c r="G15" s="10">
+        <v>5183.2446666666665</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="5">
+        <v>19602.71</v>
+      </c>
+      <c r="C16" s="10">
+        <v>137929.707859591</v>
+      </c>
+      <c r="D16" s="5">
+        <v>95.794873319372869</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2.5833333333333335</v>
+      </c>
+      <c r="F16" s="5">
+        <v>91.718610780081164</v>
+      </c>
+      <c r="G16" s="10">
+        <v>5272.8429999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="5">
+        <v>20526.13</v>
+      </c>
+      <c r="C17" s="10">
+        <v>143649.17681700599</v>
+      </c>
+      <c r="D17" s="5">
+        <v>96.550804284509823</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="F17" s="5">
+        <v>91.975159377928208</v>
+      </c>
+      <c r="G17" s="10">
+        <v>5438.4636666666665</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="5">
+        <v>14463.96</v>
+      </c>
+      <c r="C18" s="10">
+        <v>123183.486627733</v>
+      </c>
+      <c r="D18" s="5">
+        <v>97.452569738200921</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1.9166666666666667</v>
+      </c>
+      <c r="F18" s="5">
+        <v>92.475746913492102</v>
+      </c>
+      <c r="G18" s="10">
+        <v>5298.0010000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="5">
+        <v>16878</v>
+      </c>
+      <c r="C19" s="10">
+        <v>96028.496828261894</v>
+      </c>
+      <c r="D19" s="5">
+        <v>94.436081928078593</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="F19" s="5">
+        <v>93.058129003811928</v>
+      </c>
+      <c r="G19" s="10">
+        <v>4807.8466666666673</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="5">
+        <v>17948.78</v>
+      </c>
+      <c r="C20" s="10">
+        <v>125946.366206192</v>
+      </c>
+      <c r="D20" s="5">
+        <v>100.2761402500109</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="F20" s="5">
+        <v>93.35994767055648</v>
+      </c>
+      <c r="G20" s="10">
+        <v>4971.4430000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="5">
+        <v>20822.150000000001</v>
+      </c>
+      <c r="C21" s="10">
+        <v>141650.803661524</v>
+      </c>
+      <c r="D21" s="5">
+        <v>104.41696344225933</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="F21" s="5">
+        <v>93.76552992811493</v>
+      </c>
+      <c r="G21" s="10">
+        <v>5247.2323333333334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="5">
+        <v>21372.03</v>
+      </c>
+      <c r="C22" s="10">
+        <v>128358.638336718</v>
+      </c>
+      <c r="D22" s="5">
+        <v>107.35455029205134</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="F22" s="5">
+        <v>94.841635199428893</v>
+      </c>
+      <c r="G22" s="10">
+        <v>5108.6343333333334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="5">
+        <v>18850.91</v>
+      </c>
+      <c r="C23" s="10">
+        <v>136392.89377273299</v>
+      </c>
+      <c r="D23" s="5">
+        <v>111.48159172576668</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="F23" s="5">
+        <v>95.566017173232012</v>
+      </c>
+      <c r="G23" s="10">
+        <v>5139.9750000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="5">
+        <v>18279.150000000001</v>
+      </c>
+      <c r="C24" s="10">
+        <v>140657.11359792101</v>
+      </c>
+      <c r="D24" s="5">
+        <v>116.17593319616701</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F24" s="5">
+        <v>97.715751891433698</v>
+      </c>
+      <c r="G24" s="10">
+        <v>5321.1633333333339</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="5">
+        <v>21082.9</v>
+      </c>
+      <c r="C25" s="10">
+        <v>146471.50810771901</v>
+      </c>
+      <c r="D25" s="5">
+        <v>114.37673558273501</v>
+      </c>
+      <c r="E25" s="5">
+        <v>2</v>
+      </c>
+      <c r="F25" s="5">
+        <v>99.364119317832248</v>
+      </c>
+      <c r="G25" s="10">
+        <v>5564.9929999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="5">
+        <v>24915.5</v>
+      </c>
+      <c r="C26" s="10">
+        <v>133345.788783514</v>
+      </c>
+      <c r="D26" s="5">
+        <v>108.566788659387</v>
+      </c>
+      <c r="E26" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="F26" s="5">
+        <v>100.74092666666665</v>
+      </c>
+      <c r="G26" s="10">
+        <v>5497.7006666666675</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="5">
+        <v>18388.82</v>
+      </c>
+      <c r="C27" s="10">
+        <v>141036.723254107</v>
+      </c>
+      <c r="D27" s="5">
+        <v>103.09567917606533</v>
+      </c>
+      <c r="E27" s="5">
+        <v>5</v>
+      </c>
+      <c r="F27" s="5">
+        <v>103.48907833333334</v>
+      </c>
+      <c r="G27" s="10">
+        <v>5535.6620000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="5">
+        <v>19448.060000000001</v>
+      </c>
+      <c r="C28" s="10">
+        <v>143542.80216168999</v>
+      </c>
+      <c r="D28" s="5">
+        <v>101.84984973407366</v>
+      </c>
+      <c r="E28" s="5">
+        <v>6.416666666666667</v>
+      </c>
+      <c r="F28" s="5">
+        <v>106.07590966666667</v>
+      </c>
+      <c r="G28" s="10">
+        <v>5635.5710000000008</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="5">
+        <v>21330.51</v>
+      </c>
+      <c r="C29" s="10">
+        <v>149462.87166954999</v>
+      </c>
+      <c r="D29" s="5">
+        <v>99.111692493173209</v>
+      </c>
+      <c r="E29" s="5">
+        <v>7.25</v>
+      </c>
+      <c r="F29" s="5">
+        <v>107.70491566666668</v>
+      </c>
+      <c r="G29" s="10">
+        <v>5828.7926666666672</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="5">
+        <v>21898.03</v>
+      </c>
+      <c r="C30" s="10">
+        <v>133199.101081865</v>
+      </c>
+      <c r="D30" s="5">
+        <v>99.493675959023335</v>
+      </c>
+      <c r="E30" s="5">
+        <v>7.75</v>
+      </c>
+      <c r="F30" s="5">
+        <v>109.37374166666666</v>
+      </c>
+      <c r="G30" s="10">
+        <v>5671.2730000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="5">
+        <v>22329.75</v>
+      </c>
+      <c r="C31" s="10">
+        <v>140427.20612333901</v>
+      </c>
+      <c r="D31" s="5">
+        <v>95.050309070086385</v>
+      </c>
+      <c r="E31" s="5">
+        <v>7.75</v>
+      </c>
+      <c r="F31" s="5">
+        <v>111.18411400000001</v>
+      </c>
+      <c r="G31" s="10">
+        <v>5724.8023333333331</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="5">
+        <v>22528.400000000001</v>
+      </c>
+      <c r="C32" s="10">
+        <v>142597.47099672799</v>
+      </c>
+      <c r="D32" s="5">
+        <v>93.315323369833138</v>
+      </c>
+      <c r="E32" s="5">
+        <v>7.666666666666667</v>
+      </c>
+      <c r="F32" s="5">
+        <v>111.90916066666666</v>
+      </c>
+      <c r="G32" s="10">
+        <v>5740.9830000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="5">
+        <v>25960.01</v>
+      </c>
+      <c r="C33" s="10">
+        <v>148877.412001905</v>
+      </c>
+      <c r="D33" s="5">
+        <v>95.684950222222312</v>
+      </c>
+      <c r="E33" s="5">
+        <v>7</v>
+      </c>
+      <c r="F33" s="5">
+        <v>111.72943633333334</v>
+      </c>
+      <c r="G33" s="10">
+        <v>5866.3753333333334</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="5">
+        <v>28366.99</v>
+      </c>
+      <c r="C34" s="10">
+        <v>135026.24537566199</v>
+      </c>
+      <c r="D34" s="5">
+        <v>95.308414261187238</v>
+      </c>
+      <c r="E34" s="5">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="F34" s="5">
+        <v>112.78706633333333</v>
+      </c>
+      <c r="G34" s="10">
+        <v>5700.8266666666677</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="5">
+        <v>29895.87</v>
+      </c>
+      <c r="C35" s="10">
+        <v>145497.92528920801</v>
+      </c>
+      <c r="D35" s="5">
+        <v>93.662949021932434</v>
+      </c>
+      <c r="E35" s="5">
+        <v>5.833333333333333</v>
+      </c>
+      <c r="F35" s="5">
+        <v>113.671576</v>
+      </c>
+      <c r="G35" s="10">
+        <v>5856.5320000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="5">
+        <v>29942.23</v>
+      </c>
+      <c r="C36" s="10">
+        <v>148092.023399903</v>
+      </c>
+      <c r="D36" s="5">
+        <v>94.631791244387401</v>
+      </c>
+      <c r="E36" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="F36" s="5">
+        <v>114.123537</v>
+      </c>
+      <c r="G36" s="10">
+        <v>5919.8906666666662</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="5">
+        <v>28960.95</v>
+      </c>
+      <c r="C37" s="10">
+        <v>155150.116522667</v>
+      </c>
+      <c r="D37" s="5">
+        <v>93.427286849745371</v>
+      </c>
+      <c r="E37" s="5">
+        <v>5.083333333333333</v>
+      </c>
+      <c r="F37" s="5">
+        <v>114.05597233333333</v>
+      </c>
+      <c r="G37" s="10">
+        <v>6153.8710000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A150BA-58BA-4346-BC8D-58452EDD340B}">
   <dimension ref="A2:P39"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8230,872 +9096,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEEA0561-CA9B-4C71-BA96-EE09D831B140}">
-  <dimension ref="A1:G37"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="5">
-        <v>12057.93</v>
-      </c>
-      <c r="C2" s="10">
-        <v>118217.24559821399</v>
-      </c>
-      <c r="D2" s="5">
-        <v>101.638824623758</v>
-      </c>
-      <c r="E2" s="5">
-        <v>4.166666666666667</v>
-      </c>
-      <c r="F2" s="5">
-        <v>85.138244173322434</v>
-      </c>
-      <c r="G2" s="10">
-        <v>4754.9236666666666</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="5">
-        <v>13856.9</v>
-      </c>
-      <c r="C3" s="10">
-        <v>125207.210340167</v>
-      </c>
-      <c r="D3" s="5">
-        <v>99.470273332788295</v>
-      </c>
-      <c r="E3" s="5">
-        <v>4.25</v>
-      </c>
-      <c r="F3" s="5">
-        <v>85.69561782154851</v>
-      </c>
-      <c r="G3" s="10">
-        <v>4807.559666666667</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="5">
-        <v>15296.98</v>
-      </c>
-      <c r="C4" s="10">
-        <v>126666.49622835001</v>
-      </c>
-      <c r="D4" s="5">
-        <v>99.595420707391</v>
-      </c>
-      <c r="E4" s="5">
-        <v>4.25</v>
-      </c>
-      <c r="F4" s="5">
-        <v>86.169780670308512</v>
-      </c>
-      <c r="G4" s="10">
-        <v>4835.0423333333338</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="5">
-        <v>15566.96</v>
-      </c>
-      <c r="C5" s="10">
-        <v>131480.70798639799</v>
-      </c>
-      <c r="D5" s="5">
-        <v>98.599606948240194</v>
-      </c>
-      <c r="E5" s="5">
-        <v>4.25</v>
-      </c>
-      <c r="F5" s="5">
-        <v>87.012809881326618</v>
-      </c>
-      <c r="G5" s="10">
-        <v>4931.0093333333334</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="5">
-        <v>15757.01</v>
-      </c>
-      <c r="C6" s="10">
-        <v>120917.358472768</v>
-      </c>
-      <c r="D6" s="5">
-        <v>94.820195550439436</v>
-      </c>
-      <c r="E6" s="5">
-        <v>4.25</v>
-      </c>
-      <c r="F6" s="5">
-        <v>88.068362361292728</v>
-      </c>
-      <c r="G6" s="10">
-        <v>4865.3516666666665</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="5">
-        <v>16132.87</v>
-      </c>
-      <c r="C7" s="10">
-        <v>128522.91161441299</v>
-      </c>
-      <c r="D7" s="5">
-        <v>94.869219920908904</v>
-      </c>
-      <c r="E7" s="5">
-        <v>4.083333333333333</v>
-      </c>
-      <c r="F7" s="5">
-        <v>88.399384276329059</v>
-      </c>
-      <c r="G7" s="10">
-        <v>4888.4089999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="5">
-        <v>18538.27</v>
-      </c>
-      <c r="C8" s="10">
-        <v>130231.55172207901</v>
-      </c>
-      <c r="D8" s="5">
-        <v>96.640571854274526</v>
-      </c>
-      <c r="E8" s="5">
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="F8" s="5">
-        <v>88.746623223250253</v>
-      </c>
-      <c r="G8" s="10">
-        <v>4930.2760000000007</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="5">
-        <v>19974.38</v>
-      </c>
-      <c r="C9" s="10">
-        <v>134533.27709485599</v>
-      </c>
-      <c r="D9" s="5">
-        <v>97.522510591134122</v>
-      </c>
-      <c r="E9" s="5">
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="F9" s="5">
-        <v>88.447725459960736</v>
-      </c>
-      <c r="G9" s="10">
-        <v>5057.2423333333327</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="5">
-        <v>20558.84</v>
-      </c>
-      <c r="C10" s="10">
-        <v>124747.10682904</v>
-      </c>
-      <c r="D10" s="5">
-        <v>100.28431967095757</v>
-      </c>
-      <c r="E10" s="5">
-        <v>2.9166666666666665</v>
-      </c>
-      <c r="F10" s="5">
-        <v>88.886651844076866</v>
-      </c>
-      <c r="G10" s="10">
-        <v>5019.2286666666669</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="5">
-        <v>19800.259999999998</v>
-      </c>
-      <c r="C11" s="10">
-        <v>135716.38025113</v>
-      </c>
-      <c r="D11" s="5">
-        <v>99.176893201602198</v>
-      </c>
-      <c r="E11" s="5">
-        <v>2.75</v>
-      </c>
-      <c r="F11" s="5">
-        <v>89.236869094140673</v>
-      </c>
-      <c r="G11" s="10">
-        <v>5081.5293333333329</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="5">
-        <v>19564.07</v>
-      </c>
-      <c r="C12" s="10">
-        <v>133407.82504362401</v>
-      </c>
-      <c r="D12" s="5">
-        <v>96.337309912374437</v>
-      </c>
-      <c r="E12" s="5">
-        <v>2.75</v>
-      </c>
-      <c r="F12" s="5">
-        <v>89.919557138450713</v>
-      </c>
-      <c r="G12" s="10">
-        <v>5135.78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="5">
-        <v>19350.400000000001</v>
-      </c>
-      <c r="C13" s="10">
-        <v>140744.50333539501</v>
-      </c>
-      <c r="D13" s="5">
-        <v>97.003669975220177</v>
-      </c>
-      <c r="E13" s="5">
-        <v>2.75</v>
-      </c>
-      <c r="F13" s="5">
-        <v>90.275723356938059</v>
-      </c>
-      <c r="G13" s="10">
-        <v>5252.7996666666668</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="5">
-        <v>21098.07</v>
-      </c>
-      <c r="C14" s="10">
-        <v>127738.76847079401</v>
-      </c>
-      <c r="D14" s="5">
-        <v>97.194523091669296</v>
-      </c>
-      <c r="E14" s="5">
-        <v>2.75</v>
-      </c>
-      <c r="F14" s="5">
-        <v>90.777142030719617</v>
-      </c>
-      <c r="G14" s="10">
-        <v>5160.6616666666669</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="5">
-        <v>20622.79</v>
-      </c>
-      <c r="C15" s="10">
-        <v>137275.801035293</v>
-      </c>
-      <c r="D15" s="5">
-        <v>96.105681445339812</v>
-      </c>
-      <c r="E15" s="5">
-        <v>2.75</v>
-      </c>
-      <c r="F15" s="5">
-        <v>91.501026386263774</v>
-      </c>
-      <c r="G15" s="10">
-        <v>5183.2446666666665</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="5">
-        <v>19602.71</v>
-      </c>
-      <c r="C16" s="10">
-        <v>137929.707859591</v>
-      </c>
-      <c r="D16" s="5">
-        <v>95.794873319372869</v>
-      </c>
-      <c r="E16" s="5">
-        <v>2.5833333333333335</v>
-      </c>
-      <c r="F16" s="5">
-        <v>91.718610780081164</v>
-      </c>
-      <c r="G16" s="10">
-        <v>5272.8429999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="5">
-        <v>20526.13</v>
-      </c>
-      <c r="C17" s="10">
-        <v>143649.17681700599</v>
-      </c>
-      <c r="D17" s="5">
-        <v>96.550804284509823</v>
-      </c>
-      <c r="E17" s="5">
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="F17" s="5">
-        <v>91.975159377928208</v>
-      </c>
-      <c r="G17" s="10">
-        <v>5438.4636666666665</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="5">
-        <v>14463.96</v>
-      </c>
-      <c r="C18" s="10">
-        <v>123183.486627733</v>
-      </c>
-      <c r="D18" s="5">
-        <v>97.452569738200921</v>
-      </c>
-      <c r="E18" s="5">
-        <v>1.9166666666666667</v>
-      </c>
-      <c r="F18" s="5">
-        <v>92.475746913492102</v>
-      </c>
-      <c r="G18" s="10">
-        <v>5298.0010000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="5">
-        <v>16878</v>
-      </c>
-      <c r="C19" s="10">
-        <v>96028.496828261894</v>
-      </c>
-      <c r="D19" s="5">
-        <v>94.436081928078593</v>
-      </c>
-      <c r="E19" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="F19" s="5">
-        <v>93.058129003811928</v>
-      </c>
-      <c r="G19" s="10">
-        <v>4807.8466666666673</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="5">
-        <v>17948.78</v>
-      </c>
-      <c r="C20" s="10">
-        <v>125946.366206192</v>
-      </c>
-      <c r="D20" s="5">
-        <v>100.2761402500109</v>
-      </c>
-      <c r="E20" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="F20" s="5">
-        <v>93.35994767055648</v>
-      </c>
-      <c r="G20" s="10">
-        <v>4971.4430000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="5">
-        <v>20822.150000000001</v>
-      </c>
-      <c r="C21" s="10">
-        <v>141650.803661524</v>
-      </c>
-      <c r="D21" s="5">
-        <v>104.41696344225933</v>
-      </c>
-      <c r="E21" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="F21" s="5">
-        <v>93.76552992811493</v>
-      </c>
-      <c r="G21" s="10">
-        <v>5247.2323333333334</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="5">
-        <v>21372.03</v>
-      </c>
-      <c r="C22" s="10">
-        <v>128358.638336718</v>
-      </c>
-      <c r="D22" s="5">
-        <v>107.35455029205134</v>
-      </c>
-      <c r="E22" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="F22" s="5">
-        <v>94.841635199428893</v>
-      </c>
-      <c r="G22" s="10">
-        <v>5108.6343333333334</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="5">
-        <v>18850.91</v>
-      </c>
-      <c r="C23" s="10">
-        <v>136392.89377273299</v>
-      </c>
-      <c r="D23" s="5">
-        <v>111.48159172576668</v>
-      </c>
-      <c r="E23" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="F23" s="5">
-        <v>95.566017173232012</v>
-      </c>
-      <c r="G23" s="10">
-        <v>5139.9750000000004</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="5">
-        <v>18279.150000000001</v>
-      </c>
-      <c r="C24" s="10">
-        <v>140657.11359792101</v>
-      </c>
-      <c r="D24" s="5">
-        <v>116.17593319616701</v>
-      </c>
-      <c r="E24" s="5">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="F24" s="5">
-        <v>97.715751891433698</v>
-      </c>
-      <c r="G24" s="10">
-        <v>5321.1633333333339</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="5">
-        <v>21082.9</v>
-      </c>
-      <c r="C25" s="10">
-        <v>146471.50810771901</v>
-      </c>
-      <c r="D25" s="5">
-        <v>114.37673558273501</v>
-      </c>
-      <c r="E25" s="5">
-        <v>2</v>
-      </c>
-      <c r="F25" s="5">
-        <v>99.364119317832248</v>
-      </c>
-      <c r="G25" s="10">
-        <v>5564.9929999999995</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="5">
-        <v>24915.5</v>
-      </c>
-      <c r="C26" s="10">
-        <v>133345.788783514</v>
-      </c>
-      <c r="D26" s="5">
-        <v>108.566788659387</v>
-      </c>
-      <c r="E26" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="F26" s="5">
-        <v>100.74092666666665</v>
-      </c>
-      <c r="G26" s="10">
-        <v>5497.7006666666675</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="5">
-        <v>18388.82</v>
-      </c>
-      <c r="C27" s="10">
-        <v>141036.723254107</v>
-      </c>
-      <c r="D27" s="5">
-        <v>103.09567917606533</v>
-      </c>
-      <c r="E27" s="5">
-        <v>5</v>
-      </c>
-      <c r="F27" s="5">
-        <v>103.48907833333334</v>
-      </c>
-      <c r="G27" s="10">
-        <v>5535.6620000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="5">
-        <v>19448.060000000001</v>
-      </c>
-      <c r="C28" s="10">
-        <v>143542.80216168999</v>
-      </c>
-      <c r="D28" s="5">
-        <v>101.84984973407366</v>
-      </c>
-      <c r="E28" s="5">
-        <v>6.416666666666667</v>
-      </c>
-      <c r="F28" s="5">
-        <v>106.07590966666667</v>
-      </c>
-      <c r="G28" s="10">
-        <v>5635.5710000000008</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="5">
-        <v>21330.51</v>
-      </c>
-      <c r="C29" s="10">
-        <v>149462.87166954999</v>
-      </c>
-      <c r="D29" s="5">
-        <v>99.111692493173209</v>
-      </c>
-      <c r="E29" s="5">
-        <v>7.25</v>
-      </c>
-      <c r="F29" s="5">
-        <v>107.70491566666668</v>
-      </c>
-      <c r="G29" s="10">
-        <v>5828.7926666666672</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="5">
-        <v>21898.03</v>
-      </c>
-      <c r="C30" s="10">
-        <v>133199.101081865</v>
-      </c>
-      <c r="D30" s="5">
-        <v>99.493675959023335</v>
-      </c>
-      <c r="E30" s="5">
-        <v>7.75</v>
-      </c>
-      <c r="F30" s="5">
-        <v>109.37374166666666</v>
-      </c>
-      <c r="G30" s="10">
-        <v>5671.2730000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="5">
-        <v>22329.75</v>
-      </c>
-      <c r="C31" s="10">
-        <v>140427.20612333901</v>
-      </c>
-      <c r="D31" s="5">
-        <v>95.050309070086385</v>
-      </c>
-      <c r="E31" s="5">
-        <v>7.75</v>
-      </c>
-      <c r="F31" s="5">
-        <v>111.18411400000001</v>
-      </c>
-      <c r="G31" s="10">
-        <v>5724.8023333333331</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="5">
-        <v>22528.400000000001</v>
-      </c>
-      <c r="C32" s="10">
-        <v>142597.47099672799</v>
-      </c>
-      <c r="D32" s="5">
-        <v>93.315323369833138</v>
-      </c>
-      <c r="E32" s="5">
-        <v>7.666666666666667</v>
-      </c>
-      <c r="F32" s="5">
-        <v>111.90916066666666</v>
-      </c>
-      <c r="G32" s="10">
-        <v>5740.9830000000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" s="5">
-        <v>25960.01</v>
-      </c>
-      <c r="C33" s="10">
-        <v>148877.412001905</v>
-      </c>
-      <c r="D33" s="5">
-        <v>95.684950222222312</v>
-      </c>
-      <c r="E33" s="5">
-        <v>7</v>
-      </c>
-      <c r="F33" s="5">
-        <v>111.72943633333334</v>
-      </c>
-      <c r="G33" s="10">
-        <v>5866.3753333333334</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="5">
-        <v>28366.99</v>
-      </c>
-      <c r="C34" s="10">
-        <v>135026.24537566199</v>
-      </c>
-      <c r="D34" s="5">
-        <v>95.308414261187238</v>
-      </c>
-      <c r="E34" s="5">
-        <v>6.333333333333333</v>
-      </c>
-      <c r="F34" s="5">
-        <v>112.78706633333333</v>
-      </c>
-      <c r="G34" s="10">
-        <v>5700.8266666666677</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="5">
-        <v>29895.87</v>
-      </c>
-      <c r="C35" s="10">
-        <v>145497.92528920801</v>
-      </c>
-      <c r="D35" s="5">
-        <v>93.662949021932434</v>
-      </c>
-      <c r="E35" s="5">
-        <v>5.833333333333333</v>
-      </c>
-      <c r="F35" s="5">
-        <v>113.671576</v>
-      </c>
-      <c r="G35" s="10">
-        <v>5856.5320000000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="5">
-        <v>29942.23</v>
-      </c>
-      <c r="C36" s="10">
-        <v>148092.023399903</v>
-      </c>
-      <c r="D36" s="5">
-        <v>94.631791244387401</v>
-      </c>
-      <c r="E36" s="5">
-        <v>5.5</v>
-      </c>
-      <c r="F36" s="5">
-        <v>114.123537</v>
-      </c>
-      <c r="G36" s="10">
-        <v>5919.8906666666662</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="5">
-        <v>28960.95</v>
-      </c>
-      <c r="C37" s="10">
-        <v>155150.116522667</v>
-      </c>
-      <c r="D37" s="5">
-        <v>93.427286849745371</v>
-      </c>
-      <c r="E37" s="5">
-        <v>5.083333333333333</v>
-      </c>
-      <c r="F37" s="5">
-        <v>114.05597233333333</v>
-      </c>
-      <c r="G37" s="10">
-        <v>6153.8710000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
